--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\EGCC\SISTUNI-ORACLE-SQL-004\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{B1A0D3B5-062D-4469-B5EE-9A3673073B15}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255161ED-91E3-4E22-87F2-52138E618889}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="5970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="5970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="15">
   <si>
     <t>CALDERON BOHORQUEZ LUIS ANGEL</t>
   </si>
@@ -67,13 +67,16 @@
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>Asistentes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +99,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -110,7 +120,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -118,26 +128,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -454,150 +491,227 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="3"/>
-    <col min="2" max="2" width="39.28515625" style="5" customWidth="1"/>
-    <col min="3" max="6" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="39.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2">
+      <c r="C1" s="3"/>
+      <c r="D1" s="5">
         <v>43400</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="E1" s="5">
+        <v>43407</v>
+      </c>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>13</v>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="8">
+        <f>COUNTIF(C2:C12,"P")</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" ref="D13:F13" si="0">COUNTIF(D2:D12,"P")</f>
+        <v>10</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\EGCC\SISTUNI-ORACLE-SQL-004\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255161ED-91E3-4E22-87F2-52138E618889}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA576A2-60BF-4290-BB84-B46D6DFA3CF5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="5970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="15">
   <si>
     <t>CALDERON BOHORQUEZ LUIS ANGEL</t>
   </si>
@@ -495,7 +495,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,7 +520,9 @@
       <c r="E1" s="5">
         <v>43407</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="5">
+        <v>43414</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
@@ -536,7 +538,9 @@
       <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -552,7 +556,9 @@
       <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -566,7 +572,9 @@
         <v>13</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
@@ -582,7 +590,9 @@
       <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
@@ -598,7 +608,9 @@
       <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
@@ -614,7 +626,9 @@
       <c r="E7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
@@ -630,7 +644,9 @@
       <c r="E8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
@@ -658,7 +674,9 @@
       <c r="E10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
@@ -674,7 +692,9 @@
       <c r="E11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
@@ -690,7 +710,9 @@
       <c r="E12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -711,7 +733,7 @@
       </c>
       <c r="F13" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\EGCC\SISTUNI-ORACLE-SQL-004\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA576A2-60BF-4290-BB84-B46D6DFA3CF5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FD6BB0-E24F-4482-80A6-A6A3424E0E91}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="5970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
